--- a/biology/Zoologie/Gobie/Gobie.xlsx
+++ b/biology/Zoologie/Gobie/Gobie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En zoologie et  en aquariophilie, le nom vernaculaire gobie désigne, en français, plusieurs espèces de poissons. Cependant, les vrais gobies appartiennent à la famille des Gobiidés ; les autres ont reçu cette dénomination à cause de leurs ressemblances avec les vrais gobies (par ex. : Gobie de feu). Les gobies mangent principalement des vers et des petits poissons.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gobie ou gobi est la francisation du latin des ichtyologistes gobius (1748), tiré du latin classique gobio, onis[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gobie ou gobi est la francisation du latin des ichtyologistes gobius (1748), tiré du latin classique gobio, onis:
 grec kôbios κωβιος → lat. class. cobius → lat. imp. gobio → lat. ichtyo. gobius (1748) → fr. gobie
 En grec, un kôbios est « un petit poisson de mer ou d'eau douce ».
 </t>
@@ -544,7 +558,9 @@
           <t>Liste d'espèces appelées « gobie »</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Note : liste non exhaustive. Certains noms français ou scientifiques peuvent avoir des synonymes et figurer en double ci-dessous.
 Gobie abeille — Brachygobius xanthozona
@@ -623,7 +639,7 @@
 Gobie raôlet — Lesueurigobius friesii
 Gobie de Randall — Stenogobius randalli
 Gobie rayé — Stenogobius genivittatus et Gobius vittatus
-Gobie de roches[2]
+Gobie de roches
 Gobie rouge à rayures bleues — Lythrypnus dalli
 Gobie sanglant — Gobius cruentatus
 Gobie sauteur — Periophthalmus gracilis
@@ -642,9 +658,43 @@
 Gobie vert clown — Gobiodon atrangulatus
 Gobie aux yeux de crabe — Signigobius biocellatus
 Gobie zèbre — Ptereleotris zebra
-Gobie zébré — Zebrus zebrus
-Cichlidés-gobies
-Les cichlidés-gobies sont originaires du lac Tanganyika. Ils sont appelés ainsi en référence à leurs homologues marins qui vivent dans la même couche marine.
+Gobie zébré — Zebrus zebrus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gobie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gobie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces appelées « gobie »</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cichlidés-gobies</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les cichlidés-gobies sont originaires du lac Tanganyika. Ils sont appelés ainsi en référence à leurs homologues marins qui vivent dans la même couche marine.
 Eretmodus cyanostictus
 Spathodus erythrodon
 Spathodus marlieri
